--- a/Excel-XLSX/UN-NIC.xlsx
+++ b/Excel-XLSX/UN-NIC.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>06TLcZ</t>
+    <t>5Z33cN</t>
   </si>
   <si>
     <t>1994</t>
@@ -972,7 +972,7 @@
     <t>164</t>
   </si>
   <si>
-    <t>506</t>
+    <t>505</t>
   </si>
   <si>
     <t>165</t>
@@ -1647,8 +1647,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -1715,8 +1715,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+      <c r="V3" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -1783,8 +1783,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+      <c r="V4" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -1851,8 +1851,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+      <c r="V5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -1919,8 +1919,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>33</v>
+      <c r="V6" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -1987,8 +1987,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>33</v>
+      <c r="V7" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -2055,8 +2055,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
+      <c r="V8" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -2123,8 +2123,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>33</v>
+      <c r="V9" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -2191,8 +2191,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>33</v>
+      <c r="V10" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -2259,8 +2259,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
+      <c r="V11" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12">
@@ -2327,8 +2327,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
+      <c r="V12" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -2395,8 +2395,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -2463,8 +2463,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>33</v>
+      <c r="V14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -2531,8 +2531,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>33</v>
+      <c r="V15" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -2599,8 +2599,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -2667,8 +2667,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
+      <c r="V17" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18">
@@ -2735,8 +2735,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19">
@@ -2803,8 +2803,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -2871,8 +2871,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
+      <c r="V20" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -2939,8 +2939,8 @@
       <c r="U21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>33</v>
+      <c r="V21" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22">
@@ -3007,8 +3007,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>33</v>
+      <c r="V22" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23">
@@ -3075,8 +3075,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>33</v>
+      <c r="V23" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -3279,8 +3279,8 @@
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>33</v>
+      <c r="V26" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -3347,8 +3347,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>33</v>
+      <c r="V27" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -3415,8 +3415,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>33</v>
+      <c r="V28" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -3483,8 +3483,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>33</v>
+      <c r="V29" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -3551,8 +3551,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>33</v>
+      <c r="V30" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -3619,8 +3619,8 @@
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>33</v>
+      <c r="V31" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -3687,8 +3687,8 @@
       <c r="U32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>33</v>
+      <c r="V32" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -3755,8 +3755,8 @@
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>33</v>
+      <c r="V33" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="34">
@@ -3823,8 +3823,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>33</v>
+      <c r="V34" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35">
@@ -3891,8 +3891,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>33</v>
+      <c r="V35" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36">
@@ -3959,8 +3959,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>33</v>
+      <c r="V36" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -4027,8 +4027,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>33</v>
+      <c r="V37" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38">
@@ -4095,8 +4095,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>33</v>
+      <c r="V38" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39">
@@ -4163,8 +4163,8 @@
       <c r="U39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>33</v>
+      <c r="V39" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="40">
@@ -4231,8 +4231,8 @@
       <c r="U40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>33</v>
+      <c r="V40" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="41">
@@ -4299,8 +4299,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>33</v>
+      <c r="V41" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="42">
@@ -4367,8 +4367,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>33</v>
+      <c r="V42" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43">
@@ -4435,8 +4435,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>33</v>
+      <c r="V43" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44">
@@ -4503,8 +4503,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>33</v>
+      <c r="V44" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45">
@@ -4571,8 +4571,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>33</v>
+      <c r="V45" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="46">
@@ -4639,8 +4639,8 @@
       <c r="U46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>33</v>
+      <c r="V46" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="47">
@@ -4707,8 +4707,8 @@
       <c r="U47" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>33</v>
+      <c r="V47" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48">
@@ -4775,8 +4775,8 @@
       <c r="U48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V48" s="1" t="s">
-        <v>33</v>
+      <c r="V48" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="49">
@@ -4843,8 +4843,8 @@
       <c r="U49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>33</v>
+      <c r="V49" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="50">
@@ -4911,8 +4911,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>33</v>
+      <c r="V50" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="51">
@@ -4979,8 +4979,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>33</v>
+      <c r="V51" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="52">
@@ -5047,8 +5047,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>33</v>
+      <c r="V52" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="53">
@@ -5251,8 +5251,8 @@
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>33</v>
+      <c r="V55" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="56">
@@ -5319,8 +5319,8 @@
       <c r="U56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>33</v>
+      <c r="V56" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="57">
@@ -5387,8 +5387,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>33</v>
+      <c r="V57" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="58">
@@ -5455,8 +5455,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>33</v>
+      <c r="V58" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="59">
@@ -5523,8 +5523,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>33</v>
+      <c r="V59" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="60">
@@ -5591,8 +5591,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>33</v>
+      <c r="V60" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="61">
@@ -5659,8 +5659,8 @@
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>33</v>
+      <c r="V61" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="62">
@@ -5727,8 +5727,8 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>33</v>
+      <c r="V62" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="63">
@@ -5795,8 +5795,8 @@
       <c r="U63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>33</v>
+      <c r="V63" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="64">
@@ -5863,8 +5863,8 @@
       <c r="U64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>33</v>
+      <c r="V64" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="65">
@@ -5931,8 +5931,8 @@
       <c r="U65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>33</v>
+      <c r="V65" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="66">
@@ -5999,8 +5999,8 @@
       <c r="U66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>33</v>
+      <c r="V66" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="67">
@@ -6067,8 +6067,8 @@
       <c r="U67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>33</v>
+      <c r="V67" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="68">
@@ -6135,8 +6135,8 @@
       <c r="U68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>33</v>
+      <c r="V68" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="69">
@@ -6203,8 +6203,8 @@
       <c r="U69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>33</v>
+      <c r="V69" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="70">
@@ -6271,8 +6271,8 @@
       <c r="U70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V70" s="1" t="s">
-        <v>33</v>
+      <c r="V70" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="71">
@@ -6339,8 +6339,8 @@
       <c r="U71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V71" s="1" t="s">
-        <v>33</v>
+      <c r="V71" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="72">
@@ -6407,8 +6407,8 @@
       <c r="U72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>33</v>
+      <c r="V72" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="73">
@@ -6475,8 +6475,8 @@
       <c r="U73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>33</v>
+      <c r="V73" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="74">
@@ -6543,8 +6543,8 @@
       <c r="U74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>33</v>
+      <c r="V74" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="75">
@@ -6611,8 +6611,8 @@
       <c r="U75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>33</v>
+      <c r="V75" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="76">
@@ -6679,8 +6679,8 @@
       <c r="U76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>33</v>
+      <c r="V76" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="77">
@@ -6747,8 +6747,8 @@
       <c r="U77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>33</v>
+      <c r="V77" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="78">
@@ -6815,8 +6815,8 @@
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>33</v>
+      <c r="V78" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="79">
@@ -6883,8 +6883,8 @@
       <c r="U79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>33</v>
+      <c r="V79" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="80">
@@ -6951,8 +6951,8 @@
       <c r="U80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>33</v>
+      <c r="V80" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="81">
@@ -7019,8 +7019,8 @@
       <c r="U81" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V81" s="1" t="s">
-        <v>33</v>
+      <c r="V81" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="82">
@@ -7087,8 +7087,8 @@
       <c r="U82" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V82" s="1" t="s">
-        <v>33</v>
+      <c r="V82" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="83">
@@ -7155,8 +7155,8 @@
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>33</v>
+      <c r="V83" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="84">
@@ -7223,8 +7223,8 @@
       <c r="U84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>33</v>
+      <c r="V84" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="85">
@@ -7291,8 +7291,8 @@
       <c r="U85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>33</v>
+      <c r="V85" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="86">
@@ -7359,8 +7359,8 @@
       <c r="U86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>33</v>
+      <c r="V86" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="87">
@@ -7427,8 +7427,8 @@
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>33</v>
+      <c r="V87" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="88">
@@ -7495,8 +7495,8 @@
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>33</v>
+      <c r="V88" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="89">
@@ -7563,8 +7563,8 @@
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>33</v>
+      <c r="V89" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="90">
@@ -7631,8 +7631,8 @@
       <c r="U90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>33</v>
+      <c r="V90" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="91">
@@ -7699,8 +7699,8 @@
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>33</v>
+      <c r="V91" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="92">
@@ -7767,8 +7767,8 @@
       <c r="U92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>33</v>
+      <c r="V92" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="93">
@@ -7971,8 +7971,8 @@
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>33</v>
+      <c r="V95" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="96">
@@ -8039,8 +8039,8 @@
       <c r="U96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V96" s="1" t="s">
-        <v>33</v>
+      <c r="V96" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="97">
@@ -8107,8 +8107,8 @@
       <c r="U97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V97" s="1" t="s">
-        <v>33</v>
+      <c r="V97" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="98">
@@ -8175,8 +8175,8 @@
       <c r="U98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>33</v>
+      <c r="V98" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="99">
@@ -8243,8 +8243,8 @@
       <c r="U99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>33</v>
+      <c r="V99" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="100">
@@ -8311,8 +8311,8 @@
       <c r="U100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>33</v>
+      <c r="V100" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="101">
@@ -8379,8 +8379,8 @@
       <c r="U101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>33</v>
+      <c r="V101" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="102">
@@ -8447,8 +8447,8 @@
       <c r="U102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>33</v>
+      <c r="V102" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="103">
@@ -8515,8 +8515,8 @@
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>33</v>
+      <c r="V103" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="104">
@@ -8583,8 +8583,8 @@
       <c r="U104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>33</v>
+      <c r="V104" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="105">
@@ -8651,8 +8651,8 @@
       <c r="U105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>33</v>
+      <c r="V105" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="106">
@@ -8719,8 +8719,8 @@
       <c r="U106" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>33</v>
+      <c r="V106" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="107">
@@ -8787,8 +8787,8 @@
       <c r="U107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>33</v>
+      <c r="V107" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="108">
@@ -8855,8 +8855,8 @@
       <c r="U108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>33</v>
+      <c r="V108" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="109">
@@ -8923,8 +8923,8 @@
       <c r="U109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>33</v>
+      <c r="V109" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="110">
@@ -8991,8 +8991,8 @@
       <c r="U110" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>33</v>
+      <c r="V110" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="111">
@@ -9059,8 +9059,8 @@
       <c r="U111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>33</v>
+      <c r="V111" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="112">
@@ -9263,8 +9263,8 @@
       <c r="U114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>33</v>
+      <c r="V114" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="115">
@@ -9331,8 +9331,8 @@
       <c r="U115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>33</v>
+      <c r="V115" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="116">
@@ -9399,8 +9399,8 @@
       <c r="U116" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>33</v>
+      <c r="V116" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="117">
@@ -9467,8 +9467,8 @@
       <c r="U117" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V117" s="1" t="s">
-        <v>33</v>
+      <c r="V117" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="118">
@@ -9535,8 +9535,8 @@
       <c r="U118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>33</v>
+      <c r="V118" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="119">
@@ -9739,8 +9739,8 @@
       <c r="U121" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>33</v>
+      <c r="V121" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="122">
@@ -9807,8 +9807,8 @@
       <c r="U122" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>33</v>
+      <c r="V122" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="123">
@@ -9875,8 +9875,8 @@
       <c r="U123" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>33</v>
+      <c r="V123" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="124">
@@ -9943,8 +9943,8 @@
       <c r="U124" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V124" s="1" t="s">
-        <v>33</v>
+      <c r="V124" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="125">
@@ -10011,8 +10011,8 @@
       <c r="U125" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V125" s="1" t="s">
-        <v>33</v>
+      <c r="V125" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="126">
@@ -10079,8 +10079,8 @@
       <c r="U126" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>33</v>
+      <c r="V126" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="127">
@@ -10147,8 +10147,8 @@
       <c r="U127" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>33</v>
+      <c r="V127" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="128">
@@ -10215,8 +10215,8 @@
       <c r="U128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>33</v>
+      <c r="V128" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="129">
@@ -10283,8 +10283,8 @@
       <c r="U129" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>33</v>
+      <c r="V129" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="130">
@@ -10351,8 +10351,8 @@
       <c r="U130" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>33</v>
+      <c r="V130" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="131">
@@ -10419,8 +10419,8 @@
       <c r="U131" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>33</v>
+      <c r="V131" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="132">
@@ -10487,8 +10487,8 @@
       <c r="U132" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>33</v>
+      <c r="V132" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="133">
@@ -10555,8 +10555,8 @@
       <c r="U133" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V133" s="1" t="s">
-        <v>33</v>
+      <c r="V133" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="134">
@@ -10623,8 +10623,8 @@
       <c r="U134" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>33</v>
+      <c r="V134" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="135">
@@ -10691,8 +10691,8 @@
       <c r="U135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>33</v>
+      <c r="V135" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="136">
@@ -10759,8 +10759,8 @@
       <c r="U136" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V136" s="1" t="s">
-        <v>33</v>
+      <c r="V136" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="137">
@@ -10827,8 +10827,8 @@
       <c r="U137" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V137" s="1" t="s">
-        <v>33</v>
+      <c r="V137" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="138">
@@ -10895,8 +10895,8 @@
       <c r="U138" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V138" s="1" t="s">
-        <v>33</v>
+      <c r="V138" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="139">
@@ -10963,8 +10963,8 @@
       <c r="U139" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V139" s="1" t="s">
-        <v>33</v>
+      <c r="V139" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="140">
@@ -11031,8 +11031,8 @@
       <c r="U140" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V140" s="1" t="s">
-        <v>33</v>
+      <c r="V140" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="141">
@@ -11099,8 +11099,8 @@
       <c r="U141" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V141" s="1" t="s">
-        <v>33</v>
+      <c r="V141" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="142">
@@ -11167,8 +11167,8 @@
       <c r="U142" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V142" s="1" t="s">
-        <v>33</v>
+      <c r="V142" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="143">
@@ -11235,8 +11235,8 @@
       <c r="U143" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V143" s="1" t="s">
-        <v>33</v>
+      <c r="V143" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="144">
@@ -11303,8 +11303,8 @@
       <c r="U144" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V144" s="1" t="s">
-        <v>33</v>
+      <c r="V144" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="145">
@@ -11371,8 +11371,8 @@
       <c r="U145" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V145" s="1" t="s">
-        <v>33</v>
+      <c r="V145" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="146">
@@ -11439,8 +11439,8 @@
       <c r="U146" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V146" s="1" t="s">
-        <v>33</v>
+      <c r="V146" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="147">
@@ -11507,8 +11507,8 @@
       <c r="U147" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V147" s="1" t="s">
-        <v>33</v>
+      <c r="V147" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="148">
@@ -11575,8 +11575,8 @@
       <c r="U148" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V148" s="1" t="s">
-        <v>33</v>
+      <c r="V148" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="149">
@@ -11643,8 +11643,8 @@
       <c r="U149" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V149" s="1" t="s">
-        <v>33</v>
+      <c r="V149" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="150">
@@ -11711,8 +11711,8 @@
       <c r="U150" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V150" s="1" t="s">
-        <v>33</v>
+      <c r="V150" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="151">
@@ -11779,8 +11779,8 @@
       <c r="U151" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V151" s="1" t="s">
-        <v>33</v>
+      <c r="V151" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="152">
@@ -11847,8 +11847,8 @@
       <c r="U152" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V152" s="1" t="s">
-        <v>33</v>
+      <c r="V152" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="153">
@@ -11915,8 +11915,8 @@
       <c r="U153" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V153" s="1" t="s">
-        <v>33</v>
+      <c r="V153" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="154">
@@ -11983,8 +11983,8 @@
       <c r="U154" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V154" s="1" t="s">
-        <v>33</v>
+      <c r="V154" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="155">
@@ -12051,8 +12051,8 @@
       <c r="U155" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V155" s="1" t="s">
-        <v>33</v>
+      <c r="V155" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="156">
@@ -12119,8 +12119,8 @@
       <c r="U156" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V156" s="1" t="s">
-        <v>33</v>
+      <c r="V156" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="157">
@@ -12187,8 +12187,8 @@
       <c r="U157" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V157" s="1" t="s">
-        <v>33</v>
+      <c r="V157" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="158">
@@ -12255,8 +12255,8 @@
       <c r="U158" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V158" s="1" t="s">
-        <v>33</v>
+      <c r="V158" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="159">
@@ -12323,8 +12323,8 @@
       <c r="U159" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V159" s="1" t="s">
-        <v>33</v>
+      <c r="V159" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="160">
@@ -12391,8 +12391,8 @@
       <c r="U160" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V160" s="1" t="s">
-        <v>33</v>
+      <c r="V160" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="161">
@@ -12459,8 +12459,8 @@
       <c r="U161" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V161" s="1" t="s">
-        <v>33</v>
+      <c r="V161" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="162">
@@ -12527,8 +12527,8 @@
       <c r="U162" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V162" s="1" t="s">
-        <v>33</v>
+      <c r="V162" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="163">
@@ -12595,8 +12595,8 @@
       <c r="U163" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V163" s="1" t="s">
-        <v>33</v>
+      <c r="V163" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="164">
@@ -12799,8 +12799,8 @@
       <c r="U166" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V166" s="1" t="s">
-        <v>33</v>
+      <c r="V166" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="167">
@@ -12867,8 +12867,8 @@
       <c r="U167" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V167" s="1" t="s">
-        <v>33</v>
+      <c r="V167" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="168">
@@ -12935,8 +12935,8 @@
       <c r="U168" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V168" s="1" t="s">
-        <v>33</v>
+      <c r="V168" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="169">
@@ -13003,8 +13003,8 @@
       <c r="U169" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V169" s="1" t="s">
-        <v>33</v>
+      <c r="V169" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="170">
@@ -13071,8 +13071,8 @@
       <c r="U170" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V170" s="1" t="s">
-        <v>33</v>
+      <c r="V170" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="171">
@@ -13139,8 +13139,8 @@
       <c r="U171" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V171" s="1" t="s">
-        <v>33</v>
+      <c r="V171" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="172">
@@ -13207,8 +13207,8 @@
       <c r="U172" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V172" s="1" t="s">
-        <v>33</v>
+      <c r="V172" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="173">
@@ -13275,8 +13275,8 @@
       <c r="U173" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V173" s="1" t="s">
-        <v>33</v>
+      <c r="V173" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="174">
@@ -13343,8 +13343,8 @@
       <c r="U174" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V174" s="1" t="s">
-        <v>33</v>
+      <c r="V174" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="175">
@@ -13411,8 +13411,8 @@
       <c r="U175" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V175" s="1" t="s">
-        <v>33</v>
+      <c r="V175" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="176">
@@ -13479,8 +13479,8 @@
       <c r="U176" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V176" s="1" t="s">
-        <v>33</v>
+      <c r="V176" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="177">
@@ -13547,8 +13547,8 @@
       <c r="U177" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V177" s="1" t="s">
-        <v>33</v>
+      <c r="V177" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="178">
@@ -13615,8 +13615,8 @@
       <c r="U178" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V178" s="1" t="s">
-        <v>33</v>
+      <c r="V178" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="179">
@@ -13683,8 +13683,8 @@
       <c r="U179" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V179" s="1" t="s">
-        <v>33</v>
+      <c r="V179" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="180">
@@ -13751,8 +13751,8 @@
       <c r="U180" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V180" s="1" t="s">
-        <v>33</v>
+      <c r="V180" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="181">
@@ -13819,8 +13819,8 @@
       <c r="U181" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V181" s="1" t="s">
-        <v>33</v>
+      <c r="V181" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="182">
@@ -13887,8 +13887,8 @@
       <c r="U182" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V182" s="1" t="s">
-        <v>33</v>
+      <c r="V182" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="183">
@@ -13955,8 +13955,8 @@
       <c r="U183" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V183" s="1" t="s">
-        <v>33</v>
+      <c r="V183" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="184">
@@ -14023,8 +14023,8 @@
       <c r="U184" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V184" s="1" t="s">
-        <v>33</v>
+      <c r="V184" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="185">
@@ -14091,8 +14091,8 @@
       <c r="U185" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V185" s="1" t="s">
-        <v>33</v>
+      <c r="V185" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="186">
@@ -14159,8 +14159,8 @@
       <c r="U186" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V186" s="1" t="s">
-        <v>33</v>
+      <c r="V186" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="187">
@@ -14227,8 +14227,8 @@
       <c r="U187" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V187" s="1" t="s">
-        <v>33</v>
+      <c r="V187" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="188">
@@ -14295,8 +14295,8 @@
       <c r="U188" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V188" s="1" t="s">
-        <v>33</v>
+      <c r="V188" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="189">
@@ -14363,8 +14363,8 @@
       <c r="U189" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V189" s="1" t="s">
-        <v>33</v>
+      <c r="V189" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="190">
@@ -14431,8 +14431,8 @@
       <c r="U190" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V190" s="1" t="s">
-        <v>33</v>
+      <c r="V190" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="191">
@@ -14499,8 +14499,8 @@
       <c r="U191" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V191" s="1" t="s">
-        <v>33</v>
+      <c r="V191" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="192">
@@ -14567,8 +14567,8 @@
       <c r="U192" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V192" s="1" t="s">
-        <v>33</v>
+      <c r="V192" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="193">
@@ -14635,8 +14635,8 @@
       <c r="U193" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V193" s="1" t="s">
-        <v>33</v>
+      <c r="V193" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="194">
@@ -14703,8 +14703,8 @@
       <c r="U194" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V194" s="1" t="s">
-        <v>33</v>
+      <c r="V194" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="195">
@@ -14771,8 +14771,8 @@
       <c r="U195" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V195" s="1" t="s">
-        <v>33</v>
+      <c r="V195" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="196">
@@ -14839,8 +14839,8 @@
       <c r="U196" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V196" s="1" t="s">
-        <v>33</v>
+      <c r="V196" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="197">
@@ -14907,8 +14907,8 @@
       <c r="U197" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V197" s="1" t="s">
-        <v>33</v>
+      <c r="V197" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="198">
@@ -14975,8 +14975,8 @@
       <c r="U198" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V198" s="1" t="s">
-        <v>33</v>
+      <c r="V198" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="199">
@@ -15043,8 +15043,8 @@
       <c r="U199" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V199" s="1" t="s">
-        <v>33</v>
+      <c r="V199" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="200">
@@ -15111,8 +15111,8 @@
       <c r="U200" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V200" s="1" t="s">
-        <v>33</v>
+      <c r="V200" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="201">

--- a/Excel-XLSX/UN-NIC.xlsx
+++ b/Excel-XLSX/UN-NIC.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>5Z33cN</t>
+    <t>OTiZF4</t>
   </si>
   <si>
     <t>1972</t>
